--- a/medicine/Psychotrope/Eau_de_Villée/Eau_de_Villée.xlsx
+++ b/medicine/Psychotrope/Eau_de_Villée/Eau_de_Villée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eau_de_Vill%C3%A9e</t>
+          <t>Eau_de_Villée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L' Eau de Villée est une boisson alcoolisée au goût de citron. Elle est fabriquée à Ragnies (Thuin) par la distillerie de Biercée. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eau_de_Vill%C3%A9e</t>
+          <t>Eau_de_Villée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Eau de Villée doit son nom au ruisseau de Villée qui coule à proximité de l'ancienne distillerie à Biercée. Ce ruisseau est un affluent de la Sambre.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eau_de_Vill%C3%A9e</t>
+          <t>Eau_de_Villée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une liqueur titrant 40 % en volume d'alcool devant être bue très fraiche. La conservation de la bouteille peut se faire à une température de - 20 °C.
 Outre le citron de Murcie, quatre autres fruits fermentés ou macérés entrent dans la composition. 10 kg de fruits sont nécessaires pour l'élaboration d'une bouteille de 70 cl.
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Eau_de_Vill%C3%A9e</t>
+          <t>Eau_de_Villée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Distillerie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La distillerie achète chaque année 400 tonnes de fruits frais, des pommes du Pays de Herve, des citrons de Murcie, des mirabelles de Lorraine. La distillerie fabrique d'autres boissons alcoolisées.
 </t>
